--- a/src/TdependentStoicCoeff.xlsx
+++ b/src/TdependentStoicCoeff.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreanobili/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreanobili/Documents/GitHub/Polymer/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D68B3C-F465-6147-AEA0-94852C33AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE48F3D2-9013-8A44-95B3-11921C50103A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1300" windowWidth="22320" windowHeight="16740" xr2:uid="{031F4352-7E66-7746-8FF9-A834512E1A43}"/>
+    <workbookView xWindow="4920" yWindow="1300" windowWidth="22320" windowHeight="16740" activeTab="1" xr2:uid="{031F4352-7E66-7746-8FF9-A834512E1A43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="From exp. data" sheetId="1" r:id="rId1"/>
+    <sheet name="From CRECK model" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>T (°C)</t>
   </si>
@@ -90,6 +94,27 @@
   </si>
   <si>
     <t>Raw mass fraction data from literature</t>
+  </si>
+  <si>
+    <t>C15H16</t>
+  </si>
+  <si>
+    <t>C24H24</t>
+  </si>
+  <si>
+    <t>C16H14</t>
+  </si>
+  <si>
+    <t>Mass fraction simulated with the CRECK multi-step model</t>
+  </si>
+  <si>
+    <t>Mole fraction simulated with the CRECK multi-step model</t>
+  </si>
+  <si>
+    <t>sum C16</t>
+  </si>
+  <si>
+    <t>sum C15-16</t>
   </si>
 </sst>
 </file>
@@ -184,7 +209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$3</c:f>
+              <c:f>'From exp. data'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -227,7 +252,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -431,7 +456,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$75</c:f>
+              <c:f>'From exp. data'!$J$4:$J$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -645,7 +670,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$3</c:f>
+              <c:f>'From exp. data'!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,7 +697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -876,7 +901,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$75</c:f>
+              <c:f>'From exp. data'!$K$4:$K$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -1090,7 +1115,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$3</c:f>
+              <c:f>'From exp. data'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1119,7 +1144,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -1323,7 +1348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$75</c:f>
+              <c:f>'From exp. data'!$L$4:$L$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -1791,7 +1816,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>'From exp. data'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1850,7 +1875,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2054,7 +2079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$75</c:f>
+              <c:f>'From exp. data'!$C$4:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2268,7 +2293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>'From exp. data'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2341,7 +2366,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2545,7 +2570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$75</c:f>
+              <c:f>'From exp. data'!$D$4:$D$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2690,7 +2715,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>'From exp. data'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2749,7 +2774,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2953,7 +2978,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$75</c:f>
+              <c:f>'From exp. data'!$E$4:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3361,7 +3386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$3</c:f>
+              <c:f>'From exp. data'!$AA$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3390,7 +3415,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3594,7 +3619,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$4:$AA$75</c:f>
+              <c:f>'From exp. data'!$AA$4:$AA$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3808,7 +3833,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$3</c:f>
+              <c:f>'From exp. data'!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3863,7 +3888,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -4067,7 +4092,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$4:$W$75</c:f>
+              <c:f>'From exp. data'!$W$4:$W$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -4281,7 +4306,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$3</c:f>
+              <c:f>'From exp. data'!$X$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4338,7 +4363,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -4542,7 +4567,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$4:$X$75</c:f>
+              <c:f>'From exp. data'!$X$4:$X$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -5011,7 +5036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$3</c:f>
+              <c:f>'From exp. data'!$AH$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5040,7 +5065,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -5244,7 +5269,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AH$4:$AH$75</c:f>
+              <c:f>'From exp. data'!$AH$4:$AH$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -5458,7 +5483,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$3</c:f>
+              <c:f>'From exp. data'!$AI$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5527,7 +5552,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -5731,7 +5756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AI$4:$AI$75</c:f>
+              <c:f>'From exp. data'!$AI$4:$AI$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -5945,7 +5970,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AJ$3</c:f>
+              <c:f>'From exp. data'!$AJ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6016,7 +6041,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$75</c:f>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -6220,7 +6245,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AJ$4:$AJ$75</c:f>
+              <c:f>'From exp. data'!$AJ$4:$AJ$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -6661,6 +6686,2667 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From CRECK model'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8H8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48485610762955461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70753881835971755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83437061858133044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89911699964189573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93367313996624823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95343237019925464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96550544787870007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45FA-C947-A538-094403ACC7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From CRECK model'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C24H24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.892460772193773E-3"/>
+                  <c:y val="-8.9962768385583425E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$F$29:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13395653621128648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6235990338072231E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8497272548023381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2832409057597088E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2791130247804297E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3567342253824411E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9463843637379597E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-45FA-C947-A538-094403ACC7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From CRECK model'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum C15-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0143384561994463E-3"/>
+                  <c:y val="-0.21562936204908451"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$I$29:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38118735615915889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22622519130221025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13713210887064614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8050591300506964E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0047747008971447E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3210895575363034E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2548167757562071E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-45FA-C947-A538-094403ACC7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1679485952"/>
+        <c:axId val="1679236736"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$C$38:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4259663873060231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72987141700525393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84717545386588444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9032700604372732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93399435521683216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95247035528952995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96436406261785135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-45FA-C947-A538-094403ACC7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$D$38:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.40786812964084096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21534486733289107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13002181823013212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5681125447757842E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0047626648534844E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4051273826304083E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3476847461176656E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-45FA-C947-A538-094403ACC7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$E$38:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.16616548305313594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4783715661855061E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2802727903983418E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1048814114968983E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9580181346329964E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4783708841658635E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1590899209720286E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-45FA-C947-A538-094403ACC7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1679485952"/>
+        <c:axId val="1679236736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1679485952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1679236736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1679236736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mole fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1679485952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From exp. data'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8H8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From exp. data'!$J$4:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.5465780073383889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56721844188574955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57443432121529392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62947321618188512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61507465019723973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59618527746168692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63701376855730663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68130485917788486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75773080780549862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66277378584730673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61392754527550963</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6547803336505601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66987137043488987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69629711371795011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71885473151619583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64051453962600358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66676231491285687</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68432849442892441</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70981028659096335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69387755102040827</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44565217391304346</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54800477581461216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73093270462524051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75170544031550013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7547896709332067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84204630100177191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76286586791505429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76693455797933396</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66279069767441856</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80932642487046624</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81606765327695552</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77024647887323949</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86855499004204473</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83949191685912239</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92859526192859532</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91617825942718123</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92859526192859532</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94417344173441731</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95106106539627544</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80487804878048774</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.96269541778975742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.88004868872413411</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.77499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.96572280178837555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90212290502793291</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85117332235487853</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.89376463744389301</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55869565217391304</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.91863816721375879</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89356725146198823</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.96861638230298408</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.91617825942718123</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92859526192859532</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94417344173441731</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95106106539627544</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96269541778975742</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.88004868872413411</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.96572280178837555</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.90212290502793291</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97227430469063592</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95048309178743962</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.95928753180661575</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.94339622641509424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-408A-0642-8C27-075AFBADC2F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From exp. data'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C16H16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From exp. data'!$K$4:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.2084892318079222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22348568845682515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23076051212092136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12350892793937163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1393695232044477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21653832947706639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22708142938590792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24477725526203684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21489414224769637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1829532121030818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19304673837672831</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12082489945182173</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.315566141317709E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6143347083168214E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5376500555558604E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14729538078191284</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18428715010327157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19358596526460359</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19418714036072177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1836734693877556E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16304347826086957</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22595111511931434</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15139557411214968</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17895684384884653</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18510075687210251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3061779643087376E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8710248007299191E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.2812858783008038E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12790697674418605</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4611398963730577E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1881606765327691E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1463468309859155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8295529984509847E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.695150115473441E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13414634146341461</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7344586249485378E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7165468644527991E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.23152173913043478</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9566066126351539E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9766081871345026E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.294685990338164E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-408A-0642-8C27-075AFBADC2F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From exp. data'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C24H22/4/6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From exp. data'!$B$4:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From exp. data'!$L$4:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.24493276085368895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20929586965742536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19480516666378478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24701785587874325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2455558265983126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1872763930612466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13590480205678546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3917885560078375E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7375049946805036E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15427300204961142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.193025716347762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22439476689761828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23697296815193308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23755953919888168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24576876792824559</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21219007959208352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14895053498387167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1220855403064719</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6002573048314943E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38043478260869568</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22604410906607339</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1176717212626099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9337715835653416E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0109572194690687E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11489191935514065</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16842388407764639</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17221584385763489</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16279069767441862</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1160621761658031</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11205073995771669</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.7341549295774655E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.3149479973445453E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11547344110854504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6585365853658534E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4689172498970756E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.90698939115791E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17065217391304346</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1795766659889514E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.8479532163742687E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1383617697016003E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.772569530936398E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.570048309178744E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.3613231552162846E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-408A-0642-8C27-075AFBADC2F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1679485952"/>
+        <c:axId val="1679236736"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From CRECK model'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8H8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.29730800685231323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52456213182313338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70193075924656445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80967636587505065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87218658385490633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90936852785754252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93253321585565896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-408A-0642-8C27-075AFBADC2F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From CRECK model'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C24H24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.24642167124918984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1473200822070985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1921679804957769E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4667673957834773E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7596815965767419E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6047980633606738E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6397446767253168E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-408A-0642-8C27-075AFBADC2F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From CRECK model'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum C15-16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'From CRECK model'!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.45627032189849687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32811778596976804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2261475609484779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15565596016711447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11021660017932619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1026674079096861E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1827039467615683E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-408A-0642-8C27-075AFBADC2F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1679485952"/>
+        <c:axId val="1679236736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1679485952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1679236736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1679236736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mass fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1679485952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7896,6 +10582,2065 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>613086</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>77348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F908E1-7F22-2548-9F87-B22DE6ADAE65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>613086</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0356A37E-E126-9A45-94B2-265F0C3EE61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175827</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146B1ACA-C93E-C245-8A5E-DE1164ED1EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="1473200"/>
+          <a:ext cx="7389427" cy="3523166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>---</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> m(T) MON </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>d(T) DIM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>t(T) TRIM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+ a(T) PS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>m(T)= 1 - d(T) - t(T)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>d(T)  = 487185*T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-2.413</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>t(T)  =  6x10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="30000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-4.192</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>a(T) =  1 - (m*nC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - d*2nC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - t*3nC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)/(N*nC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200" baseline="30000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>with N=number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of monomers in the polymer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>and nC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> = 8 for polystyrene</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200" baseline="30000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54614</cdr:x>
+      <cdr:y>0.08564</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92161</cdr:x>
+      <cdr:y>0.19193</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E614273E-8268-33E3-E8E7-F926DDA165F4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3386667" y="389467"/>
+          <a:ext cx="2328346" cy="483381"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>=1-y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DIM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" kern="1200" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TRIM</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Rates Sirjean and HW 2011"/>
+      <sheetName val="Norm. Laskin data"/>
+      <sheetName val="Semi-Detailed"/>
+      <sheetName val="Multi-Step"/>
+      <sheetName val="POM"/>
+      <sheetName val="Database PS"/>
+      <sheetName val="Figures for MURI"/>
+      <sheetName val="SelectivityCRECK"/>
+      <sheetName val="AdditionalData"/>
+      <sheetName val="PE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="67">
+          <cell r="BA67" t="str">
+            <v>C8H8</v>
+          </cell>
+          <cell r="BD67" t="str">
+            <v>C16H16</v>
+          </cell>
+          <cell r="BE67" t="str">
+            <v>C24H24+C24H26+C24H22</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="AH68">
+            <v>310</v>
+          </cell>
+          <cell r="BA68">
+            <v>54.657800733838897</v>
+          </cell>
+          <cell r="BD68">
+            <v>20.84892318079222</v>
+          </cell>
+          <cell r="BE68">
+            <v>24.493276085368894</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="AH69">
+            <v>310</v>
+          </cell>
+          <cell r="BA69">
+            <v>56.721844188574998</v>
+          </cell>
+          <cell r="BD69">
+            <v>22.348568845682514</v>
+          </cell>
+          <cell r="BE69">
+            <v>20.929586965742537</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="AH70">
+            <v>310</v>
+          </cell>
+          <cell r="BA70">
+            <v>57.443432121529391</v>
+          </cell>
+          <cell r="BD70">
+            <v>23.076051212092136</v>
+          </cell>
+          <cell r="BE70">
+            <v>19.480516666378477</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="AH71">
+            <v>350</v>
+          </cell>
+          <cell r="BA71">
+            <v>62.947321618188511</v>
+          </cell>
+          <cell r="BD71">
+            <v>12.350892793937163</v>
+          </cell>
+          <cell r="BE71">
+            <v>24.701785587874326</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="AH72">
+            <v>350</v>
+          </cell>
+          <cell r="BA72">
+            <v>61.507465019723973</v>
+          </cell>
+          <cell r="BD72">
+            <v>13.936952320444771</v>
+          </cell>
+          <cell r="BE72">
+            <v>24.555582659831259</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="AH73">
+            <v>350</v>
+          </cell>
+          <cell r="BA73">
+            <v>59.618527746168702</v>
+          </cell>
+          <cell r="BD73">
+            <v>21.65383294770664</v>
+          </cell>
+          <cell r="BE73">
+            <v>18.727639306124662</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="AH74">
+            <v>350</v>
+          </cell>
+          <cell r="BA74">
+            <v>63.701376855730665</v>
+          </cell>
+          <cell r="BD74">
+            <v>22.708142938590793</v>
+          </cell>
+          <cell r="BE74">
+            <v>13.590480205678546</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="AH75">
+            <v>350</v>
+          </cell>
+          <cell r="BA75">
+            <v>68.130485917788491</v>
+          </cell>
+          <cell r="BD75">
+            <v>24.477725526203681</v>
+          </cell>
+          <cell r="BE75">
+            <v>7.3917885560078362</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="AH76">
+            <v>350</v>
+          </cell>
+          <cell r="BA76">
+            <v>75.773080780549861</v>
+          </cell>
+          <cell r="BD76">
+            <v>21.489414224769639</v>
+          </cell>
+          <cell r="BE76">
+            <v>2.7375049946805037</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="AH77">
+            <v>350</v>
+          </cell>
+          <cell r="BA77">
+            <v>66.27737858473067</v>
+          </cell>
+          <cell r="BD77">
+            <v>18.295321210308181</v>
+          </cell>
+          <cell r="BE77">
+            <v>15.427300204961142</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="AH78">
+            <v>350</v>
+          </cell>
+          <cell r="BA78">
+            <v>61.392754527550963</v>
+          </cell>
+          <cell r="BD78">
+            <v>19.30467383767283</v>
+          </cell>
+          <cell r="BE78">
+            <v>19.3025716347762</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="AH79">
+            <v>350</v>
+          </cell>
+          <cell r="BA79">
+            <v>65.478033365055992</v>
+          </cell>
+          <cell r="BD79">
+            <v>12.082489945182171</v>
+          </cell>
+          <cell r="BE79">
+            <v>22.439476689761825</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="AH80">
+            <v>350</v>
+          </cell>
+          <cell r="BA80">
+            <v>66.987137043488985</v>
+          </cell>
+          <cell r="BD80">
+            <v>9.31556614131771</v>
+          </cell>
+          <cell r="BE80">
+            <v>23.697296815193312</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="AH81">
+            <v>350</v>
+          </cell>
+          <cell r="BA81">
+            <v>69.629711371795011</v>
+          </cell>
+          <cell r="BD81">
+            <v>6.6143347083168216</v>
+          </cell>
+          <cell r="BE81">
+            <v>23.755953919888167</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="AH82">
+            <v>350</v>
+          </cell>
+          <cell r="BA82">
+            <v>71.885473151619578</v>
+          </cell>
+          <cell r="BD82">
+            <v>3.5376500555558605</v>
+          </cell>
+          <cell r="BE82">
+            <v>24.57687679282456</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="AH83">
+            <v>380</v>
+          </cell>
+          <cell r="BA83">
+            <v>64.051453962600363</v>
+          </cell>
+          <cell r="BD83">
+            <v>14.729538078191284</v>
+          </cell>
+          <cell r="BE83">
+            <v>21.219007959208351</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="AH84">
+            <v>380</v>
+          </cell>
+          <cell r="BA84">
+            <v>66.676231491285691</v>
+          </cell>
+          <cell r="BD84">
+            <v>18.428715010327153</v>
+          </cell>
+          <cell r="BE84">
+            <v>14.895053498387165</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="AH85">
+            <v>380</v>
+          </cell>
+          <cell r="BA85">
+            <v>68.432849442892447</v>
+          </cell>
+          <cell r="BD85">
+            <v>19.358596526460364</v>
+          </cell>
+          <cell r="BE85">
+            <v>12.208554030647193</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="AH86">
+            <v>380</v>
+          </cell>
+          <cell r="BA86">
+            <v>70.981028659096339</v>
+          </cell>
+          <cell r="BD86">
+            <v>19.418714036072178</v>
+          </cell>
+          <cell r="BE86">
+            <v>9.6002573048314943</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="AH87">
+            <v>400</v>
+          </cell>
+          <cell r="BA87">
+            <v>69.387755102040813</v>
+          </cell>
+          <cell r="BD87">
+            <v>9.183673469387756</v>
+          </cell>
+          <cell r="BE87">
+            <v>21.428571428571427</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="AH88">
+            <v>400</v>
+          </cell>
+          <cell r="BA88">
+            <v>44.565217391304344</v>
+          </cell>
+          <cell r="BD88">
+            <v>16.304347826086957</v>
+          </cell>
+          <cell r="BE88">
+            <v>38.04347826086957</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="AH89">
+            <v>420</v>
+          </cell>
+          <cell r="BA89">
+            <v>54.800477581461223</v>
+          </cell>
+          <cell r="BD89">
+            <v>22.595111511931439</v>
+          </cell>
+          <cell r="BE89">
+            <v>22.604410906607345</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="AH90">
+            <v>420</v>
+          </cell>
+          <cell r="BA90">
+            <v>73.093270462524046</v>
+          </cell>
+          <cell r="BD90">
+            <v>15.139557411214968</v>
+          </cell>
+          <cell r="BE90">
+            <v>11.76717212626099</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="AH91">
+            <v>420</v>
+          </cell>
+          <cell r="BA91">
+            <v>75.170544031550008</v>
+          </cell>
+          <cell r="BD91">
+            <v>17.895684384884653</v>
+          </cell>
+          <cell r="BE91">
+            <v>6.933771583565342</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="AH92">
+            <v>420</v>
+          </cell>
+          <cell r="BA92">
+            <v>75.478967093320676</v>
+          </cell>
+          <cell r="BD92">
+            <v>18.510075687210247</v>
+          </cell>
+          <cell r="BE92">
+            <v>6.0109572194690681</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="AH93">
+            <v>445</v>
+          </cell>
+          <cell r="BA93">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="AH94">
+            <v>485</v>
+          </cell>
+          <cell r="BA94">
+            <v>84.204630100177198</v>
+          </cell>
+          <cell r="BD94">
+            <v>4.3061779643087386</v>
+          </cell>
+          <cell r="BE94">
+            <v>11.489191935514066</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="AH95">
+            <v>500</v>
+          </cell>
+          <cell r="BA95">
+            <v>76.286586791505442</v>
+          </cell>
+          <cell r="BD95">
+            <v>6.8710248007299191</v>
+          </cell>
+          <cell r="BE95">
+            <v>16.842388407764638</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="AH96">
+            <v>500</v>
+          </cell>
+          <cell r="BA96">
+            <v>76.69345579793341</v>
+          </cell>
+          <cell r="BD96">
+            <v>5.2812858783008041</v>
+          </cell>
+          <cell r="BE96">
+            <v>17.221584385763492</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="AH97">
+            <v>500</v>
+          </cell>
+          <cell r="BA97">
+            <v>63.333333333333329</v>
+          </cell>
+          <cell r="BD97">
+            <v>12.222222222222221</v>
+          </cell>
+          <cell r="BE97">
+            <v>15.555555555555555</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="AH98">
+            <v>510</v>
+          </cell>
+          <cell r="BA98">
+            <v>80.932642487046621</v>
+          </cell>
+          <cell r="BD98">
+            <v>7.4611398963730577</v>
+          </cell>
+          <cell r="BE98">
+            <v>11.606217616580309</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="AH99">
+            <v>510</v>
+          </cell>
+          <cell r="BA99">
+            <v>81.60676532769557</v>
+          </cell>
+          <cell r="BD99">
+            <v>7.1881606765327701</v>
+          </cell>
+          <cell r="BE99">
+            <v>11.20507399577167</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="AH100">
+            <v>510</v>
+          </cell>
+          <cell r="BA100">
+            <v>76.136610833152062</v>
+          </cell>
+          <cell r="BD100">
+            <v>14.465956058298893</v>
+          </cell>
+          <cell r="BE100">
+            <v>6.6565151185555793</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="AH101">
+            <v>590</v>
+          </cell>
+          <cell r="BA101">
+            <v>86.855499004204461</v>
+          </cell>
+          <cell r="BD101">
+            <v>5.8295529984509837</v>
+          </cell>
+          <cell r="BE101">
+            <v>7.3149479973445448</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="AH102">
+            <v>600</v>
+          </cell>
+          <cell r="BA102">
+            <v>83.37155963302753</v>
+          </cell>
+          <cell r="BD102">
+            <v>3.669724770642202</v>
+          </cell>
+          <cell r="BE102">
+            <v>11.467889908256881</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="AH103">
+            <v>600</v>
+          </cell>
+          <cell r="BA103">
+            <v>89.96767241379311</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="AH104">
+            <v>600</v>
+          </cell>
+          <cell r="BA104">
+            <v>88.676014128224352</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="AH105">
+            <v>600</v>
+          </cell>
+          <cell r="BA105">
+            <v>89.96767241379311</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="AH106">
+            <v>600</v>
+          </cell>
+          <cell r="BA106">
+            <v>92.345207803223062</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="AH107">
+            <v>600</v>
+          </cell>
+          <cell r="BA107">
+            <v>93.666026871401158</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="AH108">
+            <v>600</v>
+          </cell>
+          <cell r="BA108">
+            <v>72.527472527472526</v>
+          </cell>
+          <cell r="BD108">
+            <v>12.087912087912088</v>
+          </cell>
+          <cell r="BE108">
+            <v>3.296703296703297</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="AH109">
+            <v>600</v>
+          </cell>
+          <cell r="BA109">
+            <v>95.681525932276031</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="AH110">
+            <v>600</v>
+          </cell>
+          <cell r="BA110">
+            <v>84.355112431056426</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="AH111">
+            <v>600</v>
+          </cell>
+          <cell r="BA111">
+            <v>69.662921348314612</v>
+          </cell>
+          <cell r="BD111">
+            <v>12.359550561797752</v>
+          </cell>
+          <cell r="BE111">
+            <v>3.3707865168539324</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="AH112">
+            <v>600</v>
+          </cell>
+          <cell r="BA112">
+            <v>96.050820539968228</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="AH113">
+            <v>600</v>
+          </cell>
+          <cell r="BA113">
+            <v>86.99493589052905</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="AH114">
+            <v>650</v>
+          </cell>
+          <cell r="BA114">
+            <v>85.117332235487865</v>
+          </cell>
+          <cell r="BD114">
+            <v>4.7344586249485383</v>
+          </cell>
+          <cell r="BE114">
+            <v>9.4689172498970766</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="AH115">
+            <v>650</v>
+          </cell>
+          <cell r="BA115">
+            <v>89.376463744389298</v>
+          </cell>
+          <cell r="BD115">
+            <v>5.7165468644527992</v>
+          </cell>
+          <cell r="BE115">
+            <v>4.906989391157909</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="AH116">
+            <v>660</v>
+          </cell>
+          <cell r="BA116">
+            <v>55.032119914346886</v>
+          </cell>
+          <cell r="BD116">
+            <v>22.805139186295502</v>
+          </cell>
+          <cell r="BE116">
+            <v>16.809421841541756</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="AH117">
+            <v>670</v>
+          </cell>
+          <cell r="BA117">
+            <v>91.863816721375883</v>
+          </cell>
+          <cell r="BD117">
+            <v>4.9566066126351549</v>
+          </cell>
+          <cell r="BE117">
+            <v>3.1795766659889515</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="AH118">
+            <v>700</v>
+          </cell>
+          <cell r="BA118">
+            <v>87.214611872146122</v>
+          </cell>
+          <cell r="BD118">
+            <v>3.8812785388127851</v>
+          </cell>
+          <cell r="BE118">
+            <v>5.7077625570776256</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="AH119">
+            <v>740</v>
+          </cell>
+          <cell r="BA119">
+            <v>93.168443586159356</v>
+          </cell>
+          <cell r="BE119">
+            <v>3.0187005592265623</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="AH120">
+            <v>750</v>
+          </cell>
+          <cell r="BA120">
+            <v>88.676014128224352</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="AH121">
+            <v>750</v>
+          </cell>
+          <cell r="BA121">
+            <v>89.96767241379311</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="AH122">
+            <v>750</v>
+          </cell>
+          <cell r="BA122">
+            <v>92.345207803223062</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="AH123">
+            <v>750</v>
+          </cell>
+          <cell r="BA123">
+            <v>93.666026871401158</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="AH124">
+            <v>750</v>
+          </cell>
+          <cell r="BA124">
+            <v>95.681525932276031</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="AH125">
+            <v>750</v>
+          </cell>
+          <cell r="BA125">
+            <v>84.355112431056426</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="AH126">
+            <v>750</v>
+          </cell>
+          <cell r="BA126">
+            <v>96.050820539968228</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="AH127">
+            <v>750</v>
+          </cell>
+          <cell r="BA127">
+            <v>86.99493589052905</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="AH128">
+            <v>764</v>
+          </cell>
+          <cell r="BA128">
+            <v>93.201770008905783</v>
+          </cell>
+          <cell r="BE128">
+            <v>2.6577724671871881</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="AH129">
+            <v>800</v>
+          </cell>
+          <cell r="BA129">
+            <v>91.19351100811123</v>
+          </cell>
+          <cell r="BD129">
+            <v>2.2016222479721894</v>
+          </cell>
+          <cell r="BE129">
+            <v>1.5063731170336037</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="AH130">
+            <v>900</v>
+          </cell>
+          <cell r="BA130">
+            <v>91.172914147521169</v>
+          </cell>
+          <cell r="BE130">
+            <v>0.60459492140266025</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="AH131">
+            <v>920</v>
+          </cell>
+          <cell r="BA131">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="AH132">
+            <v>975</v>
+          </cell>
+          <cell r="BA132">
+            <v>88.161209068010081</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="CL160">
+            <v>300</v>
+          </cell>
+          <cell r="CP160">
+            <v>55.312130792262401</v>
+          </cell>
+          <cell r="CQ160">
+            <v>21.402824328586899</v>
+          </cell>
+          <cell r="CR160">
+            <v>23.2850448791506</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="CL161">
+            <v>331.57894736842098</v>
+          </cell>
+          <cell r="CP161">
+            <v>61.023492672166199</v>
+          </cell>
+          <cell r="CQ161">
+            <v>19.252083792518</v>
+          </cell>
+          <cell r="CR161">
+            <v>19.7244235353158</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="CL162">
+            <v>363.15789473684202</v>
+          </cell>
+          <cell r="CP162">
+            <v>65.951465938317895</v>
+          </cell>
+          <cell r="CQ162">
+            <v>17.2825456016981</v>
+          </cell>
+          <cell r="CR162">
+            <v>16.765988459983898</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="CL163">
+            <v>394.73684210526301</v>
+          </cell>
+          <cell r="CP163">
+            <v>70.173069415273105</v>
+          </cell>
+          <cell r="CQ163">
+            <v>15.512468021984199</v>
+          </cell>
+          <cell r="CR163">
+            <v>14.314462562742699</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="CL164">
+            <v>426.31578947368399</v>
+          </cell>
+          <cell r="CP164">
+            <v>73.777741830757606</v>
+          </cell>
+          <cell r="CQ164">
+            <v>13.9396324618126</v>
+          </cell>
+          <cell r="CR164">
+            <v>12.282625707429801</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="CL165">
+            <v>457.89473684210498</v>
+          </cell>
+          <cell r="CP165">
+            <v>76.853886364817896</v>
+          </cell>
+          <cell r="CQ165">
+            <v>12.5511049722907</v>
+          </cell>
+          <cell r="CR165">
+            <v>10.5950086628915</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="CL166">
+            <v>489.47368421052602</v>
+          </cell>
+          <cell r="CP166">
+            <v>79.48231982645531</v>
+          </cell>
+          <cell r="CQ166">
+            <v>11.3292385771475</v>
+          </cell>
+          <cell r="CR166">
+            <v>9.1884415963971211</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="CL167">
+            <v>521.05263157894694</v>
+          </cell>
+          <cell r="CP167">
+            <v>81.733789111931102</v>
+          </cell>
+          <cell r="CQ167">
+            <v>10.2551316325409</v>
+          </cell>
+          <cell r="CR167">
+            <v>8.0110792555280295</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="CL168">
+            <v>552.63157894736798</v>
+          </cell>
+          <cell r="CP168">
+            <v>83.668673156867698</v>
+          </cell>
+          <cell r="CQ168">
+            <v>9.3104809331110392</v>
+          </cell>
+          <cell r="CR168">
+            <v>7.0208459100212703</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="CL169">
+            <v>584.21052631579005</v>
+          </cell>
+          <cell r="CP169">
+            <v>85.337736462572806</v>
+          </cell>
+          <cell r="CQ169">
+            <v>8.4784730849223688</v>
+          </cell>
+          <cell r="CR169">
+            <v>6.1837904525047804</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="CL170">
+            <v>615.78947368421098</v>
+          </cell>
+          <cell r="CP170">
+            <v>86.783298412146706</v>
+          </cell>
+          <cell r="CQ170">
+            <v>7.7441257748372001</v>
+          </cell>
+          <cell r="CR170">
+            <v>5.4725758130161699</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="CL171">
+            <v>647.36842105263202</v>
+          </cell>
+          <cell r="CP171">
+            <v>88.040485931147202</v>
+          </cell>
+          <cell r="CQ171">
+            <v>7.0943303370239894</v>
+          </cell>
+          <cell r="CR171">
+            <v>4.8651837318287798</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="CL172">
+            <v>678.94736842105306</v>
+          </cell>
+          <cell r="CP172">
+            <v>89.138410843313196</v>
+          </cell>
+          <cell r="CQ172">
+            <v>6.5177437452361691</v>
+          </cell>
+          <cell r="CR172">
+            <v>4.3438454114506193</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="CL173">
+            <v>710.52631578947398</v>
+          </cell>
+          <cell r="CP173">
+            <v>90.101207768425397</v>
+          </cell>
+          <cell r="CQ173">
+            <v>6.0046144649492499</v>
+          </cell>
+          <cell r="CR173">
+            <v>3.8941777666253499</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="CL174">
+            <v>742.10526315789502</v>
+          </cell>
+          <cell r="CP174">
+            <v>90.948917009869106</v>
+          </cell>
+          <cell r="CQ174">
+            <v>5.5465884820942506</v>
+          </cell>
+          <cell r="CR174">
+            <v>3.5044945080366698</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="CL175">
+            <v>773.68421052631595</v>
+          </cell>
+          <cell r="CP175">
+            <v>91.698219997918301</v>
+          </cell>
+          <cell r="CQ175">
+            <v>5.1365195551384097</v>
+          </cell>
+          <cell r="CR175">
+            <v>3.1652604469433001</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="CL176">
+            <v>805.26315789473699</v>
+          </cell>
+          <cell r="CP176">
+            <v>92.363044305523502</v>
+          </cell>
+          <cell r="CQ176">
+            <v>4.7682950802937896</v>
+          </cell>
+          <cell r="CR176">
+            <v>2.8686606141827098</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="CL177">
+            <v>836.84210526315803</v>
+          </cell>
+          <cell r="CP177">
+            <v>92.955057798484901</v>
+          </cell>
+          <cell r="CQ177">
+            <v>4.4366819309095504</v>
+          </cell>
+          <cell r="CR177">
+            <v>2.60826027060559</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="CL178">
+            <v>868.42105263157896</v>
+          </cell>
+          <cell r="CP178">
+            <v>93.484070720114005</v>
+          </cell>
+          <cell r="CQ178">
+            <v>4.1371929160249099</v>
+          </cell>
+          <cell r="CR178">
+            <v>2.3787363638611203</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="CL179">
+            <v>900</v>
+          </cell>
+          <cell r="CP179">
+            <v>93.958362396588697</v>
+          </cell>
+          <cell r="CQ179">
+            <v>3.8659726471176699</v>
+          </cell>
+          <cell r="CR179">
+            <v>2.1756649562936601</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="9">
+          <cell r="L9">
+            <v>330</v>
+          </cell>
+          <cell r="M9">
+            <v>29.730800685231323</v>
+          </cell>
+          <cell r="N9">
+            <v>19.847465095564409</v>
+          </cell>
+          <cell r="P9">
+            <v>24.642167124918984</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="L10">
+            <v>430</v>
+          </cell>
+          <cell r="M10">
+            <v>52.456213182313341</v>
+          </cell>
+          <cell r="N10">
+            <v>15.966194057991997</v>
+          </cell>
+          <cell r="P10">
+            <v>14.732008220709849</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="L11">
+            <v>530</v>
+          </cell>
+          <cell r="M11">
+            <v>70.193075924656441</v>
+          </cell>
+          <cell r="N11">
+            <v>12.074984069854917</v>
+          </cell>
+          <cell r="P11">
+            <v>7.1921679804957765</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="L12">
+            <v>630</v>
+          </cell>
+          <cell r="M12">
+            <v>80.967636587505069</v>
+          </cell>
+          <cell r="N12">
+            <v>8.8328255000742804</v>
+          </cell>
+          <cell r="P12">
+            <v>3.4667673957834775</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="L13">
+            <v>730</v>
+          </cell>
+          <cell r="M13">
+            <v>87.218658385490627</v>
+          </cell>
+          <cell r="N13">
+            <v>6.4906210387419323</v>
+          </cell>
+          <cell r="P13">
+            <v>1.7596815965767418</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="L14">
+            <v>830</v>
+          </cell>
+          <cell r="M14">
+            <v>90.936852785754255</v>
+          </cell>
+          <cell r="N14">
+            <v>4.8803438479710977</v>
+          </cell>
+          <cell r="P14">
+            <v>0.96047980633606733</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="L15">
+            <v>930</v>
+          </cell>
+          <cell r="M15">
+            <v>93.253321585565899</v>
+          </cell>
+          <cell r="N15">
+            <v>3.7764112348808268</v>
+          </cell>
+          <cell r="P15">
+            <v>0.56397446767253168</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8215,8 +12960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096FDEBA-F76C-554E-98A9-821010379DDB}">
   <dimension ref="B1:AK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView topLeftCell="G2" zoomScale="51" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8375,7 +13120,7 @@
         <v>0.5465780073383889</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:N4" si="0">D4/$H4</f>
+        <f t="shared" ref="K4:L4" si="0">D4/$H4</f>
         <v>0.2084892318079222</v>
       </c>
       <c r="L4" s="4">
@@ -15658,4 +20403,743 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CFABB-F082-2642-B0A0-7AB48FD3AB90}">
+  <dimension ref="B1:S44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>330</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.29730800685231323</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.19847465095564409</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.16899543359566824</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.24642167124918984</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.8800237347184521E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM(C4:G4)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f>D4+E4+G4</f>
+        <v>0.45627032189849687</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>430</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52456213182313338</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.15966194057991998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.11042958374374065</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1473200822070985</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.8026261646107441E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f>D5+E5+G5</f>
+        <v>0.32811778596976804</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>530</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.70193075924656445</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.12074984069854917</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.9092445843316794E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.1921679804957769E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.6305274406611944E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUM(C6:G6)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <f>D6+E6+G6</f>
+        <v>0.2261475609484779</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>630</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.80967636587505065</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.8328255000742803E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.4136019373895399E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.4667673957834773E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.3191685792476272E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SUM(C7:G7)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f>D7+E7+G7</f>
+        <v>0.15565596016711447</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>730</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.87218658385490633</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.4906210387419325E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.9702783374811512E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.7596815965767419E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.5607606417095361E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM(C8:G8)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I8" s="1">
+        <f>D8+E8+G8</f>
+        <v>0.11021660017932619</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>830</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.90936852785754252</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.8803438479710977E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.1123627296850519E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.6047980633606738E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.109960830253537E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SUM(C9:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f>D9+E9+G9</f>
+        <v>8.1026674079096861E-2</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>930</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.93253321585565896</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.7764112348808269E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5774216793329524E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.6397446767253168E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.2887103254778837E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SUM(C10:G10)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f>D10+E10+G10</f>
+        <v>6.1827039467615683E-2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <f>8*0.012+8*0.001</f>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="D26">
+        <f>16*0.012+16*0.001</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E26">
+        <f>15*0.012+16*0.001</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F26">
+        <f>24*0.012+24*0.001</f>
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="G26">
+        <f>16*0.012+14*0.001</f>
+        <v>0.20600000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>330</v>
+      </c>
+      <c r="C29" s="1">
+        <f>C4/$C$26/(C4/$C$26+D4/$D$26+E4/$E$26+F4/$F$26+G4/$G$26)</f>
+        <v>0.48485610762955461</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D4/$D$26/(C4/$C$26+D4/$D$26+E4/$E$26+F4/$F$26+G4/$G$26)</f>
+        <v>0.16183830322015313</v>
+      </c>
+      <c r="E29" s="1">
+        <f>E4/$E$26/(C4/$C$26+D4/$D$26+E4/$E$26+F4/$F$26+G4/$G$26)</f>
+        <v>0.14623741547955044</v>
+      </c>
+      <c r="F29" s="1">
+        <f>F4/$F$26/(C4/$C$26+D4/$D$26+E4/$E$26+F4/$F$26+G4/$G$26)</f>
+        <v>0.13395653621128648</v>
+      </c>
+      <c r="G29" s="1">
+        <f>G4/$G$26/(C4/$C$26+D4/$D$26+E4/$E$26+F4/$F$26+G4/$G$26)</f>
+        <v>7.3111637459455342E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <f>SUM(C29:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <f>D29+E29+G29</f>
+        <v>0.38118735615915889</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>430</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C5/$C$26/(C5/$C$26+D5/$D$26+E5/$E$26+F5/$F$26+G5/$G$26)</f>
+        <v>0.70753881835971755</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D5/$D$26/(C5/$C$26+D5/$D$26+E5/$E$26+F5/$F$26+G5/$G$26)</f>
+        <v>0.10767744555093532</v>
+      </c>
+      <c r="E30" s="1">
+        <f>E5/$E$26/(C5/$C$26+D5/$D$26+E5/$E$26+F5/$F$26+G5/$G$26)</f>
+        <v>7.9034377934066397E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <f>F5/$F$26/(C5/$C$26+D5/$D$26+E5/$E$26+F5/$F$26+G5/$G$26)</f>
+        <v>6.6235990338072231E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <f>G5/$G$26/(C5/$C$26+D5/$D$26+E5/$E$26+F5/$F$26+G5/$G$26)</f>
+        <v>3.9513367817208545E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:H35" si="1">SUM(C30:G30)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <f>D30+E30+G30</f>
+        <v>0.22622519130221025</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>530</v>
+      </c>
+      <c r="C31" s="1">
+        <f>C6/$C$26/(C6/$C$26+D6/$D$26+E6/$E$26+F6/$F$26+G6/$G$26)</f>
+        <v>0.83437061858133044</v>
+      </c>
+      <c r="D31" s="1">
+        <f>D6/$D$26/(C6/$C$26+D6/$D$26+E6/$E$26+F6/$F$26+G6/$G$26)</f>
+        <v>7.1766422791749676E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f>E6/$E$26/(C6/$C$26+D6/$D$26+E6/$E$26+F6/$F$26+G6/$G$26)</f>
+        <v>4.3578528673614968E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <f>F6/$F$26/(C6/$C$26+D6/$D$26+E6/$E$26+F6/$F$26+G6/$G$26)</f>
+        <v>2.8497272548023381E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <f>G6/$G$26/(C6/$C$26+D6/$D$26+E6/$E$26+F6/$F$26+G6/$G$26)</f>
+        <v>2.1787157405281511E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <f>D31+E31+G31</f>
+        <v>0.13713210887064614</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>630</v>
+      </c>
+      <c r="C32" s="1">
+        <f>C7/$C$26/(C7/$C$26+D7/$D$26+E7/$E$26+F7/$F$26+G7/$G$26)</f>
+        <v>0.89911699964189573</v>
+      </c>
+      <c r="D32" s="1">
+        <f>D7/$D$26/(C7/$C$26+D7/$D$26+E7/$E$26+F7/$F$26+G7/$G$26)</f>
+        <v>4.9042703336191894E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <f>E7/$E$26/(C7/$C$26+D7/$D$26+E7/$E$26+F7/$F$26+G7/$G$26)</f>
+        <v>2.6006096869871917E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <f>F7/$F$26/(C7/$C$26+D7/$D$26+E7/$E$26+F7/$F$26+G7/$G$26)</f>
+        <v>1.2832409057597088E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <f>G7/$G$26/(C7/$C$26+D7/$D$26+E7/$E$26+F7/$F$26+G7/$G$26)</f>
+        <v>1.3001791094443167E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="I32" s="1">
+        <f>D32+E32+G32</f>
+        <v>8.8050591300506964E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>730</v>
+      </c>
+      <c r="C33" s="1">
+        <f>C8/$C$26/(C8/$C$26+D8/$D$26+E8/$E$26+F8/$F$26+G8/$G$26)</f>
+        <v>0.93367313996624823</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D8/$D$26/(C8/$C$26+D8/$D$26+E8/$E$26+F8/$F$26+G8/$G$26)</f>
+        <v>3.4740952439262181E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <f>E8/$E$26/(C8/$C$26+D8/$D$26+E8/$E$26+F8/$F$26+G8/$G$26)</f>
+        <v>1.6871740188632529E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <f>F8/$F$26/(C8/$C$26+D8/$D$26+E8/$E$26+F8/$F$26+G8/$G$26)</f>
+        <v>6.2791130247804297E-3</v>
+      </c>
+      <c r="G33" s="1">
+        <f>G8/$G$26/(C8/$C$26+D8/$D$26+E8/$E$26+F8/$F$26+G8/$G$26)</f>
+        <v>8.435054381076737E-3</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <f>D33+E33+G33</f>
+        <v>6.0047747008971447E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>830</v>
+      </c>
+      <c r="C34" s="1">
+        <f>C9/$C$26/(C9/$C$26+D9/$D$26+E9/$E$26+F9/$F$26+G9/$G$26)</f>
+        <v>0.95343237019925464</v>
+      </c>
+      <c r="D34" s="1">
+        <f>D9/$D$26/(C9/$C$26+D9/$D$26+E9/$E$26+F9/$F$26+G9/$G$26)</f>
+        <v>2.5584115019468563E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <f>E9/$E$26/(C9/$C$26+D9/$D$26+E9/$E$26+F9/$F$26+G9/$G$26)</f>
+        <v>1.1751565812906541E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <f>F9/$F$26/(C9/$C$26+D9/$D$26+E9/$E$26+F9/$F$26+G9/$G$26)</f>
+        <v>3.3567342253824411E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <f>G9/$G$26/(C9/$C$26+D9/$D$26+E9/$E$26+F9/$F$26+G9/$G$26)</f>
+        <v>5.8752147429879343E-3</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <f>D34+E34+G34</f>
+        <v>4.3210895575363034E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>930</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C10/$C$26/(C10/$C$26+D10/$D$26+E10/$E$26+F10/$F$26+G10/$G$26)</f>
+        <v>0.96550544787870007</v>
+      </c>
+      <c r="D35" s="1">
+        <f>D10/$D$26/(C10/$C$26+D10/$D$26+E10/$E$26+F10/$F$26+G10/$G$26)</f>
+        <v>1.9549682299317327E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <f>E10/$E$26/(C10/$C$26+D10/$D$26+E10/$E$26+F10/$F$26+G10/$G$26)</f>
+        <v>8.6659362919844721E-3</v>
+      </c>
+      <c r="F35" s="1">
+        <f>F10/$F$26/(C10/$C$26+D10/$D$26+E10/$E$26+F10/$F$26+G10/$G$26)</f>
+        <v>1.9463843637379597E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <f>G10/$G$26/(C10/$C$26+D10/$D$26+E10/$E$26+F10/$F$26+G10/$G$26)</f>
+        <v>4.3325491662602744E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <f>D35+E35+G35</f>
+        <v>3.2548167757562071E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <f>1-D38-E38</f>
+        <v>0.4259663873060231</v>
+      </c>
+      <c r="D38" s="1">
+        <f>487185*B29^-2.413</f>
+        <v>0.40786812964084096</v>
+      </c>
+      <c r="E38" s="1">
+        <f>6000000000*B29^-4.192</f>
+        <v>0.16616548305313594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C44" si="2">1-D39-E39</f>
+        <v>0.72987141700525393</v>
+      </c>
+      <c r="D39" s="1">
+        <f>487185*B30^-2.413</f>
+        <v>0.21534486733289107</v>
+      </c>
+      <c r="E39" s="1">
+        <f>6000000000*B30^-4.192</f>
+        <v>5.4783715661855061E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84717545386588444</v>
+      </c>
+      <c r="D40" s="1">
+        <f>487185*B31^-2.413</f>
+        <v>0.13002181823013212</v>
+      </c>
+      <c r="E40" s="1">
+        <f>6000000000*B31^-4.192</f>
+        <v>2.2802727903983418E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9032700604372732</v>
+      </c>
+      <c r="D41" s="1">
+        <f>487185*B32^-2.413</f>
+        <v>8.5681125447757842E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <f>6000000000*B32^-4.192</f>
+        <v>1.1048814114968983E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93399435521683216</v>
+      </c>
+      <c r="D42" s="1">
+        <f>487185*B33^-2.413</f>
+        <v>6.0047626648534844E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <f>6000000000*B33^-4.192</f>
+        <v>5.9580181346329964E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95247035528952995</v>
+      </c>
+      <c r="D43" s="1">
+        <f>487185*B34^-2.413</f>
+        <v>4.4051273826304083E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <f>6000000000*B34^-4.192</f>
+        <v>3.4783708841658635E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96436406261785135</v>
+      </c>
+      <c r="D44" s="1">
+        <f>487185*B35^-2.413</f>
+        <v>3.3476847461176656E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <f>6000000000*B35^-4.192</f>
+        <v>2.1590899209720286E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>